--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRUBERT\Documents\COSIMA-Laserstar\Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\COSIMA-Laserstar\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Website</t>
   </si>
@@ -176,9 +176,6 @@
     <t xml:space="preserve">fanuc </t>
   </si>
   <si>
-    <t>https://www.fanuc.com/</t>
-  </si>
-  <si>
     <t>Würselen</t>
   </si>
   <si>
@@ -191,7 +188,19 @@
     <t>michael.kuhn@fanuc.eu</t>
   </si>
   <si>
-    <t>00352727777-401</t>
+    <t>Urlaub bis 06.8</t>
+  </si>
+  <si>
+    <t>Email schreiben, Telefonisch nicht erreichbar</t>
+  </si>
+  <si>
+    <t>Haben uns an ILT Marketing Axel Bauer weitergeleitet</t>
+  </si>
+  <si>
+    <t>00352(0)727777-401</t>
+  </si>
+  <si>
+    <t>https://www.fanuc.eu/de/de/zentrum-kontaktieren</t>
   </si>
 </sst>
 </file>
@@ -570,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,12 +593,12 @@
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -609,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -623,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -636,8 +645,11 @@
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -648,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -659,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -667,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -675,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -689,7 +701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -703,7 +715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -717,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -734,7 +746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -745,7 +757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
@@ -753,7 +765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -766,34 +778,40 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -813,8 +831,9 @@
     <hyperlink ref="C15" r:id="rId13" display="mailto:info@sparkasse-aachen.de"/>
     <hyperlink ref="C16" r:id="rId14"/>
     <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Website</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>00352727777-401</t>
+  </si>
+  <si>
+    <t>Urlaub bis: 06.08.</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,12 +587,12 @@
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -609,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -623,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -637,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -648,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -659,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -667,7 +670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -675,7 +678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -689,7 +692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -703,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -717,7 +720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -734,7 +737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -745,7 +748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
@@ -753,7 +756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -766,14 +769,20 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="I16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -786,14 +795,14 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
       <c r="F17" t="s">
         <v>50</v>
       </c>
       <c r="I17" t="s">
         <v>52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Website</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Reichelt Elektronik GmbH</t>
   </si>
   <si>
-    <t>info@reichelt.de</t>
-  </si>
-  <si>
     <t>+49 (0)4422 955-333</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>businessbetreuung@conrad.de</t>
   </si>
   <si>
-    <t>09604/408988</t>
-  </si>
-  <si>
-    <t>rs-gmbh@rs-components.com</t>
-  </si>
-  <si>
     <t>RS Components GmbH</t>
   </si>
   <si>
@@ -191,17 +182,35 @@
     <t>michael.kuhn@fanuc.eu</t>
   </si>
   <si>
-    <t>00352727777-401</t>
-  </si>
-  <si>
-    <t>Urlaub bis: 06.08.</t>
+    <t>marketing@reichelt.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Mail schreiben, PDF zuschicken </t>
+  </si>
+  <si>
+    <t>rszentrale2@rs-components.com</t>
+  </si>
+  <si>
+    <t>Unterstützen keine "Hilfsorganisationen"</t>
+  </si>
+  <si>
+    <t>49 7156 303-0</t>
+  </si>
+  <si>
+    <t>meldet sich, falls unterstützen wollen</t>
+  </si>
+  <si>
+    <t>Urlaub bis: 07.08.</t>
+  </si>
+  <si>
+    <t>00352727777-401 (Tel fkt. nicht)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +233,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,12 +293,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -573,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,14 +629,15 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -612,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -626,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -640,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -651,7 +696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -662,7 +707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -670,138 +715,157 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9622300</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="J17" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -815,15 +879,16 @@
     <hyperlink ref="F10" r:id="rId6"/>
     <hyperlink ref="F11" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8" display="mailto:businessbetreuung@conrad.de"/>
-    <hyperlink ref="C12" r:id="rId9" display="mailto:rs-gmbh@rs-components.com"/>
-    <hyperlink ref="C13" r:id="rId10" display="mailto:kerstin.beckers@sparkasse-aachen.de"/>
-    <hyperlink ref="F13" r:id="rId11" display="http://www.sparkasse-aachen.de/"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13" display="mailto:info@sparkasse-aachen.de"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C13" r:id="rId9" display="mailto:kerstin.beckers@sparkasse-aachen.de"/>
+    <hyperlink ref="F13" r:id="rId10" display="http://www.sparkasse-aachen.de/"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12" display="mailto:info@sparkasse-aachen.de"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C11" r:id="rId15"/>
+    <hyperlink ref="C12" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Website</t>
   </si>
@@ -156,6 +156,51 @@
   </si>
   <si>
     <t>info@sparkasse-aachen.de</t>
+  </si>
+  <si>
+    <t>Kuka - Industrierobotor</t>
+  </si>
+  <si>
+    <t>Günther Neumann</t>
+  </si>
+  <si>
+    <t>guenther.neumann@kuka.com</t>
+  </si>
+  <si>
+    <t>02405/4546815</t>
+  </si>
+  <si>
+    <t>https://www.kuka.com/de-de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fanuc </t>
+  </si>
+  <si>
+    <t>Würselen</t>
+  </si>
+  <si>
+    <t>Empfehlung von Axel Bauer (ILT-Marketing)</t>
+  </si>
+  <si>
+    <t>Micheal Kuhn</t>
+  </si>
+  <si>
+    <t>michael.kuhn@fanuc.eu</t>
+  </si>
+  <si>
+    <t>Urlaub bis 06.8</t>
+  </si>
+  <si>
+    <t>Email schreiben, Telefonisch nicht erreichbar</t>
+  </si>
+  <si>
+    <t>Haben uns an ILT Marketing Axel Bauer weitergeleitet</t>
+  </si>
+  <si>
+    <t>00352(0)727777-401</t>
+  </si>
+  <si>
+    <t>https://www.fanuc.eu/de/de/zentrum-kontaktieren</t>
   </si>
 </sst>
 </file>
@@ -534,26 +579,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -573,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -587,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -600,8 +645,11 @@
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -612,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -623,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -631,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -639,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -653,7 +701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -667,7 +715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -681,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -698,7 +746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -709,12 +757,61 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -732,8 +829,11 @@
     <hyperlink ref="F13" r:id="rId11" display="http://www.sparkasse-aachen.de/"/>
     <hyperlink ref="C14" r:id="rId12"/>
     <hyperlink ref="C15" r:id="rId13" display="mailto:info@sparkasse-aachen.de"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Website</t>
   </si>
@@ -204,13 +204,88 @@
   </si>
   <si>
     <t>00352727777-401 (Tel fkt. nicht)</t>
+  </si>
+  <si>
+    <t>Hackathon, Georg sprechen</t>
+  </si>
+  <si>
+    <t>Florian Eibl, Marcel; anrufen TOS Backround</t>
+  </si>
+  <si>
+    <t>innolite</t>
+  </si>
+  <si>
+    <t>Christian Wenzel</t>
+  </si>
+  <si>
+    <t>TOS…</t>
+  </si>
+  <si>
+    <t>Oliver vllt</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Annika</t>
+  </si>
+  <si>
+    <t>siemens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilt </t>
+  </si>
+  <si>
+    <t>Semesterbeschrechung</t>
+  </si>
+  <si>
+    <t>4JET</t>
+  </si>
+  <si>
+    <t>Julia Cremer</t>
+  </si>
+  <si>
+    <t>cleanlaser</t>
+  </si>
+  <si>
+    <t>Bäckereien</t>
+  </si>
+  <si>
+    <t>3Dmensional</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Leitfähiges Filament</t>
+  </si>
+  <si>
+    <t>+49 2407 9097-0</t>
+  </si>
+  <si>
+    <t>sekretariat@cleanlaser.de</t>
+  </si>
+  <si>
+    <t>Tobias Bonhoff</t>
+  </si>
+  <si>
+    <t>02234 - 2766011</t>
+  </si>
+  <si>
+    <t>in Arbeit, Antwort steht noch aus</t>
+  </si>
+  <si>
+    <t>muss noch angegangen werden</t>
+  </si>
+  <si>
+    <t>2. Weg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +334,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +361,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,6 +402,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -617,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,12 +739,12 @@
     <col min="9" max="9" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -657,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -670,8 +777,11 @@
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -684,8 +794,14 @@
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -696,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -707,15 +823,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -725,11 +844,11 @@
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -750,7 +869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -767,7 +886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -784,7 +903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -801,7 +920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
@@ -812,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
@@ -820,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -842,11 +961,14 @@
       <c r="I16" t="s">
         <v>49</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -865,8 +987,97 @@
       <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="9" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="8">
+        <v>492414757080</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="14"/>
+      <c r="K29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="12"/>
+      <c r="K30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="10"/>
+      <c r="K31" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -887,8 +1098,9 @@
     <hyperlink ref="C17" r:id="rId14"/>
     <hyperlink ref="C11" r:id="rId15"/>
     <hyperlink ref="C12" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Website</t>
   </si>
@@ -248,9 +248,6 @@
     <t>cleanlaser</t>
   </si>
   <si>
-    <t>Bäckereien</t>
-  </si>
-  <si>
     <t>3Dmensional</t>
   </si>
   <si>
@@ -279,6 +276,15 @@
   </si>
   <si>
     <t>2. Weg</t>
+  </si>
+  <si>
+    <t>https://www.innolite.de/</t>
+  </si>
+  <si>
+    <t>auf Marcel warten</t>
+  </si>
+  <si>
+    <t>Bäckereien?</t>
   </si>
 </sst>
 </file>
@@ -726,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1007,9 @@
       <c r="D18" s="8">
         <v>492414757080</v>
       </c>
+      <c r="F18" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>64</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>70</v>
@@ -1034,10 +1043,10 @@
         <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>4</v>
@@ -1045,39 +1054,42 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>76</v>
       </c>
-      <c r="F24" t="s">
-        <v>77</v>
+      <c r="I24" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J29" s="14"/>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J30" s="12"/>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J31" s="10"/>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\COSIMA-Laserstar\Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRUBERT\Documents\COSIMA-Laserstar\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,9 +104,6 @@
     <t>Reichelt Elektronik GmbH</t>
   </si>
   <si>
-    <t>info@reichelt.de</t>
-  </si>
-  <si>
     <t>+49 (0)4422 955-333</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>09604/408988</t>
   </si>
   <si>
-    <t>rs-gmbh@rs-components.com</t>
-  </si>
-  <si>
     <t>RS Components GmbH</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>https://www.fanuc.eu/de/de/zentrum-kontaktieren</t>
+  </si>
+  <si>
+    <t>rszentrale2@rs-components.com</t>
+  </si>
+  <si>
+    <t>marketing@reichelt.de</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -692,10 +692,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -705,28 +705,28 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,84 +734,84 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="M17" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +824,7 @@
     <hyperlink ref="F10" r:id="rId6"/>
     <hyperlink ref="F11" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8" display="mailto:businessbetreuung@conrad.de"/>
-    <hyperlink ref="C12" r:id="rId9" display="mailto:rs-gmbh@rs-components.com"/>
+    <hyperlink ref="C12" r:id="rId9"/>
     <hyperlink ref="C13" r:id="rId10" display="mailto:kerstin.beckers@sparkasse-aachen.de"/>
     <hyperlink ref="F13" r:id="rId11" display="http://www.sparkasse-aachen.de/"/>
     <hyperlink ref="C14" r:id="rId12"/>
@@ -832,8 +832,9 @@
     <hyperlink ref="C16" r:id="rId14"/>
     <hyperlink ref="C17" r:id="rId15"/>
     <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="C11" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Website</t>
   </si>
@@ -182,12 +182,6 @@
     <t>michael.kuhn@fanuc.eu</t>
   </si>
   <si>
-    <t>Urlaub bis 06.8</t>
-  </si>
-  <si>
-    <t>Email schreiben, Telefonisch nicht erreichbar</t>
-  </si>
-  <si>
     <t>Haben uns an ILT Marketing Axel Bauer weitergeleitet</t>
   </si>
   <si>
@@ -201,13 +195,79 @@
   </si>
   <si>
     <t>marketing@reichelt.de</t>
+  </si>
+  <si>
+    <t>Cleanlaser</t>
+  </si>
+  <si>
+    <t>sekretariat@cleanlaser.de</t>
+  </si>
+  <si>
+    <t>Herzogenrath</t>
+  </si>
+  <si>
+    <t>https://www.cleanlaser.de</t>
+  </si>
+  <si>
+    <t>02407 9097-0</t>
+  </si>
+  <si>
+    <t>49 7156 303-0</t>
+  </si>
+  <si>
+    <t>info@trumpf.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melden sich </t>
+  </si>
+  <si>
+    <t>bereits angefragt, Antwort steht aus</t>
+  </si>
+  <si>
+    <t>muss noch angefragt werden</t>
+  </si>
+  <si>
+    <t>Email geschrieben am 06.08.</t>
+  </si>
+  <si>
+    <t>Email geschrieben am 08.08.</t>
+  </si>
+  <si>
+    <t>Semestersitzung</t>
+  </si>
+  <si>
+    <t>Tobias Bonhoff</t>
+  </si>
+  <si>
+    <t>4JET</t>
+  </si>
+  <si>
+    <t>Julia Cremer</t>
+  </si>
+  <si>
+    <t>Bäckereien</t>
+  </si>
+  <si>
+    <t>Nicole am Freitag persönlich vorbeigehen</t>
+  </si>
+  <si>
+    <t>Siemens Center of Knowledge Interchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@cki.rwth-aachen.de M.Brandt@cki.rwth-aachen.de </t>
+  </si>
+  <si>
+    <t>+49 241 80 97695</t>
+  </si>
+  <si>
+    <t>Marina Brandt (Manager)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +290,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +326,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,12 +355,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -579,18 +695,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -619,7 +737,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -631,9 +749,10 @@
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -646,11 +765,12 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D6">
@@ -659,9 +779,10 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -670,57 +791,71 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="M11" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -728,45 +863,48 @@
       <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="M12" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B16" t="s">
@@ -787,12 +925,12 @@
       <c r="I16" t="s">
         <v>49</v>
       </c>
-      <c r="M16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="M16" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
@@ -802,16 +940,90 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="M17" t="s">
-        <v>53</v>
+      <c r="M17" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -833,8 +1045,10 @@
     <hyperlink ref="C17" r:id="rId15"/>
     <hyperlink ref="F17" r:id="rId16"/>
     <hyperlink ref="C11" r:id="rId17"/>
+    <hyperlink ref="C18" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId19" display="info@cki.rwth-aachen.de/Marina Brandt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Website</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>Marina Brandt (Manager)</t>
+  </si>
+  <si>
+    <t>Saturn Aachen</t>
+  </si>
+  <si>
+    <t>Media Markt Aachen</t>
+  </si>
+  <si>
+    <t>0241/5680-0</t>
+  </si>
+  <si>
+    <t>0241/4795-0</t>
+  </si>
+  <si>
+    <t>aachen@saturn.de</t>
+  </si>
+  <si>
+    <t>aachen@mediamarkt.de</t>
   </si>
 </sst>
 </file>
@@ -698,7 +716,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1030,28 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">

--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>Website</t>
   </si>
@@ -279,6 +279,93 @@
   </si>
   <si>
     <t>aachen@mediamarkt.de</t>
+  </si>
+  <si>
+    <t>EP:Wacht &amp; Büschgens</t>
+  </si>
+  <si>
+    <t>Alsdorf</t>
+  </si>
+  <si>
+    <t>02404 - 82022</t>
+  </si>
+  <si>
+    <t>EP:Brettschneider</t>
+  </si>
+  <si>
+    <t>Baesweiler</t>
+  </si>
+  <si>
+    <t>02401 - 53361</t>
+  </si>
+  <si>
+    <t>09:00 - 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30 - 13:00 14:30 - 18:30 </t>
+  </si>
+  <si>
+    <t>EP: Lövenich</t>
+  </si>
+  <si>
+    <t>02461 - 970011</t>
+  </si>
+  <si>
+    <t>10:00 - 18:30</t>
+  </si>
+  <si>
+    <t>Jülich</t>
+  </si>
+  <si>
+    <t>02462 - 4908</t>
+  </si>
+  <si>
+    <t>Linnich</t>
+  </si>
+  <si>
+    <t>EP: Krieger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00 - 13:00 14:00 - 18:30 </t>
+  </si>
+  <si>
+    <t>02433 - 2525</t>
+  </si>
+  <si>
+    <t>09:00 - 13:00 14:00 - 18:30</t>
+  </si>
+  <si>
+    <t>Hückelhoven</t>
+  </si>
+  <si>
+    <t>EP: Lennartz</t>
+  </si>
+  <si>
+    <t>EP:Thiemo Schmitz</t>
+  </si>
+  <si>
+    <t>02452 - 62553</t>
+  </si>
+  <si>
+    <t>Heinsberg</t>
+  </si>
+  <si>
+    <t>b.loevenich@eploevenich.de</t>
+  </si>
+  <si>
+    <t>info@ep-lennartz.de</t>
+  </si>
+  <si>
+    <t>E-Mail gesendet 08.08.</t>
+  </si>
+  <si>
+    <t>Deutsche Bahn</t>
+  </si>
+  <si>
+    <t>02272 9995777 Sohn</t>
+  </si>
+  <si>
+    <t>Anfrage gesendet</t>
   </si>
 </sst>
 </file>
@@ -373,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,6 +483,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A46:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,6 +819,7 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1033,36 +1127,147 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" t="s">
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="D36"/>
+      <c r="F36"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1087,8 +1292,10 @@
     <hyperlink ref="C11" r:id="rId17"/>
     <hyperlink ref="C18" r:id="rId18"/>
     <hyperlink ref="C24" r:id="rId19" display="info@cki.rwth-aachen.de/Marina Brandt"/>
+    <hyperlink ref="C27" r:id="rId20"/>
+    <hyperlink ref="C33" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRUBERT\Documents\COSIMA-Laserstar\Marketing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="6260"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>Website</t>
   </si>
@@ -366,13 +361,22 @@
   </si>
   <si>
     <t>Anfrage gesendet</t>
+  </si>
+  <si>
+    <t>Sixt GmbH &amp; Co. Autovermietung KG</t>
+  </si>
+  <si>
+    <t>kundenbetreuung@sixt.com</t>
+  </si>
+  <si>
+    <t>089 744440</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,7 +497,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -604,7 +608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -798,37 +802,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A46:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -848,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -863,7 +867,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -881,7 +885,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -893,7 +897,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -905,7 +909,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -914,7 +918,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -931,7 +935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -945,7 +949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="43.5">
       <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
@@ -962,7 +966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="43.5">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -979,7 +983,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="5" customFormat="1">
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="5" customFormat="1">
       <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="43.5">
       <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="43.5">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="43.5">
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="29">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -1117,16 +1121,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="7" customFormat="1">
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
         <v>79</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="5" customFormat="1">
       <c r="A28" s="16" t="s">
         <v>80</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="4" customFormat="1">
       <c r="A29" s="17" t="s">
         <v>85</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="5" customFormat="1">
       <c r="A30" s="16" t="s">
         <v>88</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="43.5">
       <c r="A31" s="18" t="s">
         <v>93</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="5" customFormat="1">
       <c r="A32" s="16" t="s">
         <v>99</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="4" customFormat="1">
       <c r="A33" s="18" t="s">
         <v>104</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="4" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>105</v>
       </c>
@@ -1244,30 +1248,41 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="4" customFormat="1">
       <c r="A35" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="D36"/>
+    <row r="36" spans="1:6" s="4" customFormat="1">
+      <c r="A36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
       <c r="F36"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" t="s">
+    <row r="37" spans="1:6" s="4" customFormat="1">
+      <c r="A37" s="17"/>
+      <c r="D37"/>
+      <c r="F37"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8"/>
+      <c r="B39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="9"/>
+      <c r="B40" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1294,8 +1309,9 @@
     <hyperlink ref="C24" r:id="rId19" display="info@cki.rwth-aachen.de/Marina Brandt"/>
     <hyperlink ref="C27" r:id="rId20"/>
     <hyperlink ref="C33" r:id="rId21"/>
+    <hyperlink ref="C36" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="127">
   <si>
     <t>Website</t>
   </si>
@@ -370,6 +370,36 @@
   </si>
   <si>
     <t>089 744440</t>
+  </si>
+  <si>
+    <t>Loetronic</t>
+  </si>
+  <si>
+    <t>Moritz Schwarz (Inhaber)</t>
+  </si>
+  <si>
+    <t>info@loetronic.com</t>
+  </si>
+  <si>
+    <t>0241 44647840</t>
+  </si>
+  <si>
+    <t>Aachen</t>
+  </si>
+  <si>
+    <t>http://www.loetronic.de/ueber/impressum/</t>
+  </si>
+  <si>
+    <t>Würth</t>
+  </si>
+  <si>
+    <t>henrik.kueskens@we-online.de heiko.zimmermann@we-online.de</t>
+  </si>
+  <si>
+    <t>Wollten uns die Tinsy geben. Kennen also auch COSIMA und Evie</t>
+  </si>
+  <si>
+    <t>Herr Küskens(Aachen) oder Herr Zimmermann (Küskens hatte sich bei mir nicht gemeldet)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,6 +523,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,7 +836,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -823,6 +857,7 @@
     <col min="3" max="3" width="38.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
     <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.81640625" customWidth="1"/>
   </cols>
@@ -1217,7 +1252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1">
+    <row r="33" spans="1:9" s="4" customFormat="1">
       <c r="A33" s="18" t="s">
         <v>104</v>
       </c>
@@ -1234,7 +1269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="4" customFormat="1">
+    <row r="34" spans="1:9" s="4" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>105</v>
       </c>
@@ -1248,7 +1283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1">
+    <row r="35" spans="1:9" s="4" customFormat="1">
       <c r="A35" s="18" t="s">
         <v>111</v>
       </c>
@@ -1257,7 +1292,7 @@
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1">
+    <row r="36" spans="1:9" s="4" customFormat="1">
       <c r="A36" s="9" t="s">
         <v>114</v>
       </c>
@@ -1269,20 +1304,59 @@
       </c>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1">
-      <c r="A37" s="17"/>
-      <c r="D37"/>
-      <c r="F37"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8"/>
-      <c r="B39" t="s">
+    <row r="37" spans="1:9" s="4" customFormat="1">
+      <c r="A37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="43.5">
+      <c r="A38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="11"/>
+      <c r="E39"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="8"/>
+      <c r="B41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
-      <c r="B40" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="9"/>
+      <c r="B42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1310,8 +1384,10 @@
     <hyperlink ref="C27" r:id="rId20"/>
     <hyperlink ref="C33" r:id="rId21"/>
     <hyperlink ref="C36" r:id="rId22"/>
+    <hyperlink ref="C37" r:id="rId23"/>
+    <hyperlink ref="C38" r:id="rId24" display="henrik.kueskens@we-online.de"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Marketing/Sponsorenliste.xlsx
+++ b/Marketing/Sponsorenliste.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRUBERT\Documents\COSIMA-Laserstar\Marketing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="6260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>Website</t>
   </si>
@@ -400,13 +405,22 @@
   </si>
   <si>
     <t>Herr Küskens(Aachen) oder Herr Zimmermann (Küskens hatte sich bei mir nicht gemeldet)</t>
+  </si>
+  <si>
+    <t>Absage per mail am 13.08.</t>
+  </si>
+  <si>
+    <t>Forschungsgesellschaft Kraftfahrwesen mbH</t>
+  </si>
+  <si>
+    <t>Malte Pleger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,7 +545,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,38 +850,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -887,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -902,7 +916,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -920,7 +934,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -932,7 +946,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -944,7 +958,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -953,24 +967,24 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1">
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -984,7 +998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="43.5">
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.5">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="5" customFormat="1">
+    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1">
+    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1046,7 +1060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1">
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
@@ -1054,7 +1068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.5">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
@@ -1080,7 +1094,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.5">
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
@@ -1103,27 +1117,30 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.5">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="29">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -1156,16 +1173,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1">
+    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>79</v>
       </c>
@@ -1176,7 +1193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="5" customFormat="1">
+    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>80</v>
       </c>
@@ -1187,7 +1204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1">
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>85</v>
       </c>
@@ -1201,7 +1218,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1">
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>88</v>
       </c>
@@ -1215,7 +1232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="43.5">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>93</v>
       </c>
@@ -1235,7 +1252,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="5" customFormat="1">
+    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>99</v>
       </c>
@@ -1252,7 +1269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1">
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>104</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1">
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>105</v>
       </c>
@@ -1283,16 +1300,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:9" s="4" customFormat="1">
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>114</v>
       </c>
@@ -1304,7 +1320,7 @@
       </c>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1">
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>117</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="43.5">
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>123</v>
       </c>
@@ -1341,22 +1357,40 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="4" customFormat="1">
+    <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="21"/>
       <c r="C39" s="11"/>
       <c r="E39"/>
       <c r="I39" s="20"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="8"/>
-      <c r="B41" t="s">
+    <row r="40" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="E40"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="11"/>
+      <c r="E41"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="9"/>
-      <c r="B42" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" t="s">
         <v>66</v>
       </c>
     </row>
